--- a/WpfTennis/WpfTennis/bin/Debug/Ace Club/FichierEntraineurAce Club.xlsx
+++ b/WpfTennis/WpfTennis/bin/Debug/Ace Club/FichierEntraineurAce Club.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sacha\Documents\Informatique\Informatique C#\Esilv_année_2019\Wpf_Tennis\WpfTennis\WpfTennis\bin\Debug\Ace Club\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sacha\Documents\Informatique\GitHub\Wpf_Projet_Tennis_Final\WpfTennis\WpfTennis\bin\Debug\Ace Club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EA111E-7FB6-4609-85A5-3217093E0883}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94467D0-49CF-4032-9082-AE8AAC893004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4788" yWindow="1176" windowWidth="16872" windowHeight="9108" xr2:uid="{EBC8A776-919C-4A83-AA6F-C896E080C6C2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -39,9 +39,6 @@
     <t>prename</t>
   </si>
   <si>
-    <t>sexam</t>
-  </si>
-  <si>
     <t>adresseam</t>
   </si>
   <si>
@@ -61,6 +58,21 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>Andre</t>
+  </si>
+  <si>
+    <t>Jise</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>rue de la mouche</t>
+  </si>
+  <si>
+    <t>Tour</t>
   </si>
 </sst>
 </file>
@@ -96,9 +108,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,18 +428,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F6772F-1D2C-40D9-BA5D-0A4C54ABCABB}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
     <col min="10" max="10" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -437,13 +451,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
       </c>
       <c r="F2" s="1">
         <v>33228</v>
@@ -451,34 +465,68 @@
       <c r="G2">
         <v>625859696</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="I2">
         <v>1000</v>
       </c>
       <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="1">
+        <v>36291</v>
+      </c>
+      <c r="N2">
+        <v>2900</v>
+      </c>
+      <c r="O2" t="s">
         <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1">
-        <v>43841</v>
-      </c>
-      <c r="N2">
-        <v>2500</v>
-      </c>
-      <c r="O2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1">
+        <v>31168</v>
+      </c>
+      <c r="G3">
+        <v>658741358</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>700</v>
+      </c>
+      <c r="J3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WpfTennis/WpfTennis/bin/Debug/Ace Club/FichierEntraineurAce Club.xlsx
+++ b/WpfTennis/WpfTennis/bin/Debug/Ace Club/FichierEntraineurAce Club.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sacha\Documents\Informatique\GitHub\Wpf_Projet_Tennis_Final\WpfTennis\WpfTennis\bin\Debug\Ace Club\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94467D0-49CF-4032-9082-AE8AAC893004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56B23AE-2410-4062-BD94-8267991EF32C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4788" yWindow="1176" windowWidth="16872" windowHeight="9108" xr2:uid="{EBC8A776-919C-4A83-AA6F-C896E080C6C2}"/>
+    <workbookView xWindow="5280" yWindow="2232" windowWidth="16872" windowHeight="9060" xr2:uid="{EBC8A776-919C-4A83-AA6F-C896E080C6C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>prename</t>
   </si>
   <si>
@@ -63,16 +60,19 @@
     <t>Andre</t>
   </si>
   <si>
-    <t>Jise</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>rue de la mouche</t>
   </si>
   <si>
     <t>Tour</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>JISE</t>
   </si>
 </sst>
 </file>
@@ -445,19 +445,19 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
       </c>
       <c r="F2" s="1">
         <v>33228</v>
@@ -466,19 +466,19 @@
         <v>625859696</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>1000</v>
       </c>
       <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M2" s="1">
         <v>36291</v>
@@ -487,24 +487,24 @@
         <v>2900</v>
       </c>
       <c r="O2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
       </c>
       <c r="F3" s="1">
         <v>31168</v>
@@ -513,7 +513,7 @@
         <v>658741358</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>700</v>
@@ -522,10 +522,10 @@
         <v>-1</v>
       </c>
       <c r="K3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
